--- a/English Grammar - Tenses.xlsx
+++ b/English Grammar - Tenses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysfme\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysfme\OneDrive\Documents\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF599E-A62D-41DA-9F48-26D9EABDD5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07039D5B-3AB2-498F-81A5-2F909FA21971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DED2EC4A-9ABD-4EB9-BF7D-DA8C649FAAB2}"/>
+    <workbookView xWindow="9285" yWindow="15" windowWidth="19515" windowHeight="14805" xr2:uid="{DED2EC4A-9ABD-4EB9-BF7D-DA8C649FAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,12 +531,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -552,14 +546,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,157 +897,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8D3CE-461B-4008-ACF8-B4060A54207B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="53.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="55.75" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1059,10 +1059,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1072,57 +1072,57 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1131,72 +1131,72 @@
       <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1220,7 +1220,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1266,7 +1266,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1303,20 +1303,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="D2:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/English Grammar - Tenses.xlsx
+++ b/English Grammar - Tenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysfme\OneDrive\Documents\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayedg\Desktop\English\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07039D5B-3AB2-498F-81A5-2F909FA21971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4F4AEE-F5F3-42CC-A006-D704B6F7C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="15" windowWidth="19515" windowHeight="14805" xr2:uid="{DED2EC4A-9ABD-4EB9-BF7D-DA8C649FAAB2}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{DED2EC4A-9ABD-4EB9-BF7D-DA8C649FAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -138,7 +138,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,7 +149,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +159,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,7 +170,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +180,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,7 +191,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +201,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,7 +212,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,7 +222,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +248,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,7 +259,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +269,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +280,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -290,7 +290,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,7 +301,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +311,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,9 +334,6 @@
   <si>
     <t>(I - You - we) + do + not + verb
 (He - She - it) + does + not + verb</t>
-  </si>
-  <si>
-    <t>(am - is - are) + not + verb + ing</t>
   </si>
   <si>
     <t>(Have - Has) + verb (pp)</t>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">just' to emphasise how recent </t>
+  </si>
+  <si>
+    <t>(am - is - are) + not  + verb + ing</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -466,7 +466,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -474,7 +474,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -482,7 +482,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -490,7 +490,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,7 +498,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8D3CE-461B-4008-ACF8-B4060A54207B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -913,7 +913,7 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1048,13 +1048,13 @@
         <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1064,10 +1064,10 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1077,13 +1077,13 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1092,10 +1092,10 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1105,10 +1105,10 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -1120,19 +1120,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1141,13 +1141,13 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
@@ -1156,13 +1156,13 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1171,13 +1171,13 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1186,13 +1186,13 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1303,20 +1303,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
